--- a/results/final/medium/21.xlsx
+++ b/results/final/medium/21.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,6 +50,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -583,69 +584,69 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>['Job13', 'J']</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['Job15', 'G']</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>['Job14', 'J']</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['Job13', 'J']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['Job14', 'J']</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>['Job12', 'J']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['Job14', 'J']</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>['Job14', 'G']</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>['Job6', 'E']</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>['Job14', 'G']</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>['Job12', 'J']</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>['Job13', 'J']</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>['Job14', 'J']</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>['Job14', 'J']</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>['Job12', 'J']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>['Job13', 'J']</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>['Job12', 'J']</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>['Job13', 'J']</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>['Job14', 'J']</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>['Job6', 'E']</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>['Job13', 'J']</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>['Job13', 'J']</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>En congé</t>
@@ -658,12 +659,12 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
+          <t>['Job9', 'G']</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
           <t>['Job9', 'E']</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>['Job9', 'G']</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -695,64 +696,64 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>['Job12', 'H']</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>['Job1', 'B']</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>['Job5', 'B']</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>['Job12', 'H']</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>['Job5', 'B']</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['Job12', 'H']</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>['Job5', 'B']</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>En congé</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>En congé</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>['Job12', 'H']</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>['Job12', 'H']</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>En congé</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>En congé</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>['Job12', 'H']</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>['Job12', 'H']</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>['Job12', 'H']</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>['Job15', 'H']</t>
@@ -780,12 +781,12 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
+          <t>['Job1', 'B']</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
           <t>['Job9', 'H']</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>['Job1', 'B']</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -822,74 +823,74 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>['Job6', 'D']</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>['Job5', 'D']</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['Job5', 'D']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['Job5', 'D']</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>['Job6', 'E']</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['Job5', 'D']</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>['Job5', 'D']</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>['Job5', 'D']</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>['Job6', 'E']</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>['Job6', 'D']</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>['Job5', 'D']</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['Job5', 'D']</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>['Job5', 'D']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>['Job5', 'D']</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>['Job5', 'D']</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>['Job5', 'D']</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>['Job6', 'D']</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>['Job6', 'D']</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>['Job6', 'E']</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>['Job6', 'E']</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>['Job6', 'E']</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>['Job6', 'D']</t>
-        </is>
-      </c>
       <c r="R6" t="inlineStr">
         <is>
           <t>['Job9', 'E']</t>
@@ -907,12 +908,12 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
+          <t>['Job7', 'D']</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
           <t>['Job7', 'E']</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>['Job7', 'D']</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -929,67 +930,67 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>['Job13', 'J']</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['Job14', 'G']</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>['Job14', 'G']</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>['Job5', 'D']</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>['Job5', 'D']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['Job12', 'J']</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>['Job13', 'I']</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>['Job13', 'I']</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>['Job13', 'J']</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>['Job15', 'G']</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>['Job13', 'I']</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>['Job15', 'G']</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>['Job14', 'G']</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>['Job13', 'J']</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>['Job13', 'J']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>['Job5', 'D']</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>['Job12', 'J']</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>['Job5', 'D']</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>['Job14', 'G']</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>['Job13', 'I']</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>['Job15', 'G']</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1056,62 +1057,62 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>['Job3', 'C']</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>['Job5', 'C']</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['Job5', 'C']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['Job3', 'A']</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>['Job3', 'A']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['Job4', 'A']</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>['Job5', 'C']</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>['Job5', 'C']</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>['Job3', 'A']</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>['Job3', 'A']</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>['Job4', 'A']</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>['Job1', 'A']</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>['Job5', 'C']</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>['Job3', 'A']</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>['Job3', 'A']</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>['Job3', 'A']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>['Job5', 'C']</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>['Job5', 'C']</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>['Job5', 'C']</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>['Job3', 'C']</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>['Job3', 'A']</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>['Job4', 'A']</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>['Job4', 'A']</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
